--- a/public/Answers.xlsx
+++ b/public/Answers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000_SEED\Project\Answer Evaluatio  using AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAURABH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2766AF45-DC4E-4B95-95DE-482B4472CA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A1EAD4-F376-4DF6-95E6-AD9B10E16922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{66DD7C78-7D20-45E7-9D6B-94CBF6DB8243}"/>
   </bookViews>
@@ -25,35 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Essay 1: Environment and Its Importance (Short – 150 words)
-The environment is the foundation of life on Earth. It includes air, water, land, plants, animals, and all natural resources that support living beings. A healthy environment provides clean air to breathe, pure water to drink, fertile soil for agriculture, and a stable climate for survival.
-In recent years, human activities such as industrialization, deforestation, and pollution have severely damaged the environment. Air and water pollution have increased, forests are disappearing, and climate change has become a major global concern. These issues not only harm nature but also threaten human health and future generations.
-Protecting the environment is the responsibility of every individual. Simple actions like saving water, reducing plastic use, planting trees, and using renewable energy can make a significant difference. Sustainable development is the key to balancing economic growth with environmental protection. A safe environment today ensures a better tomorrow.</t>
-  </si>
-  <si>
-    <t>Essay 2: Environmental Pollution (Medium – 250 words)
-Environmental pollution is one of the most serious problems faced by the world today. It refers to the contamination of air, water, and land by harmful substances released due to human activities. Rapid industrial growth, urbanization, and increased use of vehicles have greatly contributed to pollution.
-Air pollution is caused by smoke from factories, vehicles, and burning of fossil fuels. It leads to respiratory diseases and global warming. Water pollution results from industrial waste, sewage, and chemicals being discharged into rivers and oceans, affecting aquatic life and human health. Land pollution occurs due to excessive use of plastics, pesticides, and improper waste disposal.
-Pollution not only damages the environment but also disrupts the natural balance of ecosystems. Climate change, melting glaciers, and rising sea levels are clear signs of environmental degradation.To control pollution, strict laws should be implemented by governments. Industries must adopt eco-friendly practices, and people should be encouraged to use public transport and renewable energy. Awareness and education play a vital role in protecting the environment. A pollution-free environment is essential for healthy living and sustainable development.</t>
-  </si>
-  <si>
-    <t>Essay 3: Climate Change and Environment (Exam-Oriented – 300 words)
-Climate change is one of the biggest environmental challenges of the modern world. It refers to long-term changes in temperature and weather patterns caused mainly by human activities such as burning fossil fuels, deforestation, and industrial emissions.
-Greenhouse gases like carbon dioxide and methane trap heat in the atmosphere, leading to global warming. As a result, glaciers are melting, sea levels are rising, and extreme weather events such as floods, droughts, and heatwaves are becoming more frequent. These changes have a severe impact on agriculture, biodiversity, and human life.
-Environmental degradation has also led to the loss of wildlife habitats and extinction of many species. Forests, which act as carbon sinks, are being destroyed for urban expansion and commercial purposes. This worsens climate change and reduces biodiversity.
-Addressing climate change requires global cooperation and individual responsibility. Governments should promote renewable energy sources like solar and wind power. Industries must reduce carbon emissions, and individuals should adopt sustainable lifestyles.
-Protecting the environment is not an option but a necessity. Immediate action is required to preserve natural resources for future generations. A healthy environment ensures economic stability, food security, and overall well-being of humanity.</t>
-  </si>
-  <si>
-    <t>Essay 4: Role of Individuals in Environmental Protection (Simple &amp; Practical – 200 words)
-Environmental protection is not only the duty of governments but also the responsibility of every individual. Small actions taken by individuals can collectively create a large positive impact on the environment.
-One of the most effective ways to protect the environment is by reducing waste. Avoiding single-use plastics, recycling materials, and reusing products help in minimizing pollution. Conserving water and electricity also plays a crucial role in preserving natural resources.
-Planting trees helps in maintaining ecological balance and reducing carbon dioxide levels in the atmosphere. Using public transport, walking, or cycling reduces air pollution and fuel consumption. Choosing eco-friendly products supports sustainable practices.
-Awareness is equally important. Educating others about environmental issues encourages responsible behavior. When individuals act responsibly, society moves closer to sustainable development.
-In conclusion, environmental protection begins at home. Every small step taken today contributes to a healthier planet tomorrow.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>roll_number</t>
   </si>
@@ -495,7 +467,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,52 +478,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
